--- a/listofvideos.xlsx
+++ b/listofvideos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="9120" windowHeight="3750" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="9120" windowHeight="3690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tracked Videos" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6556" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6607" uniqueCount="187">
   <si>
     <t>H</t>
   </si>
@@ -507,6 +507,78 @@
   <si>
     <t>'TT1_20160907_135224.dat'</t>
   </si>
+  <si>
+    <t>'TT1_20160907_135513.dat'</t>
+  </si>
+  <si>
+    <t>'TT1_20160907_135337.dat'</t>
+  </si>
+  <si>
+    <t>'TT1_20160907_135528.dat'</t>
+  </si>
+  <si>
+    <t>'TT1_20160907_135352.dat'</t>
+  </si>
+  <si>
+    <t>'TT1_20160907_135626.dat'</t>
+  </si>
+  <si>
+    <t>'TT1_20160907_135450.dat'</t>
+  </si>
+  <si>
+    <t>TT1 D-row</t>
+  </si>
+  <si>
+    <t>Bamboo</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_123249.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_123329.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_123402.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_123112.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_123152.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_123226.dat'</t>
+  </si>
+  <si>
+    <t>The pole is already there at the beginning of the video</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_123429.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_123252.dat'</t>
+  </si>
+  <si>
+    <t>TT3_20160908_123535.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_123359.dat'</t>
+  </si>
+  <si>
+    <t>Toothpick:</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_124359.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_124444.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_124223.dat'</t>
+  </si>
+  <si>
+    <t>'TT3_20160908_124308.dat'</t>
+  </si>
 </sst>
 </file>
 
@@ -586,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -620,6 +692,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1414,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:XFD84"/>
+  <dimension ref="A2:XFD100"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52259,7 +52332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -52282,7 +52355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5</v>
       </c>
@@ -52305,7 +52378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
@@ -52328,7 +52401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
@@ -52348,6 +52421,235 @@
         <v>124</v>
       </c>
       <c r="H84" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="14"/>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88">
+        <v>2467</v>
+      </c>
+      <c r="D88" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88">
+        <v>3139</v>
+      </c>
+      <c r="F88">
+        <v>2597</v>
+      </c>
+      <c r="G88" s="3">
+        <v>42718</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89">
+        <v>242</v>
+      </c>
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89">
+        <v>240</v>
+      </c>
+      <c r="F89">
+        <v>362</v>
+      </c>
+      <c r="G89" s="3">
+        <v>42718</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90">
+        <v>1237</v>
+      </c>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90">
+        <v>1227</v>
+      </c>
+      <c r="F90">
+        <v>1357</v>
+      </c>
+      <c r="G90" s="3">
+        <v>42718</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91">
+        <v>1693</v>
+      </c>
+      <c r="D91" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91">
+        <v>1719</v>
+      </c>
+      <c r="F91">
+        <v>1813</v>
+      </c>
+      <c r="G91" s="3">
+        <v>42718</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92">
+        <v>1605</v>
+      </c>
+      <c r="D92" t="s">
+        <v>181</v>
+      </c>
+      <c r="E92">
+        <v>1568</v>
+      </c>
+      <c r="F92">
+        <v>1719</v>
+      </c>
+      <c r="G92" s="3">
+        <v>42718</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99">
+        <v>128</v>
+      </c>
+      <c r="D99" t="s">
+        <v>185</v>
+      </c>
+      <c r="E99">
+        <v>190</v>
+      </c>
+      <c r="F99">
+        <v>250</v>
+      </c>
+      <c r="G99" s="3">
+        <v>42719</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100">
+        <v>2309</v>
+      </c>
+      <c r="D100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100">
+        <v>2297</v>
+      </c>
+      <c r="F100">
+        <v>2439</v>
+      </c>
+      <c r="G100" s="3">
+        <v>42719</v>
+      </c>
+      <c r="H100" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -52873,10 +53175,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52890,6 +53192,11 @@
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>103</v>
@@ -52962,6 +53269,75 @@
         <v>42711</v>
       </c>
       <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>990</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="3">
+        <v>42716</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7">
+        <v>716</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7">
+        <v>818</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="3">
+        <v>42716</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8">
+        <v>1864</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8">
+        <v>1965</v>
+      </c>
+      <c r="F8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="3">
+        <v>42716</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
       </c>
     </row>
